--- a/mean_results/avg_model_results_80_20_optimize_F1.xlsx
+++ b/mean_results/avg_model_results_80_20_optimize_F1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7001591741591742</v>
+        <v>0.7333333333333332</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9731731941415118</v>
+        <v>0.7324146917896919</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5858635431235431</v>
+        <v>0.7333333333333332</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7720745228173073</v>
+        <v>0.7698268928134289</v>
       </c>
       <c r="F2" t="n">
-        <v>0.960440970963341</v>
+        <v>0.5783132530120482</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5815577777777777</v>
+        <v>0.5799999999999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7113275613275614</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9877195455203358</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6134133333333333</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8813482570061517</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08426941190345476</v>
+        <v>0.09464907149858126</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7206363636363637</v>
+        <v>0.7398544788544787</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8415468495780773</v>
+        <v>0.7989840145901871</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5913207037407038</v>
+        <v>0.6304459151959152</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7482043129101953</v>
+        <v>0.7542827657378741</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8331991736394139</v>
+        <v>0.7739804831809719</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6001796031746032</v>
+        <v>0.6313205555555556</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6593788819875777</v>
+        <v>0.6720158102766798</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8598767327640274</v>
+        <v>0.844941025678138</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6171333333333333</v>
+        <v>0.6746533333333333</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9138157894736842</v>
+        <v>0.9118421052631579</v>
       </c>
       <c r="L3" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07287454367703562</v>
+        <v>0.06963688814235315</v>
       </c>
     </row>
     <row r="4">
@@ -588,255 +588,341 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7423626373626373</v>
+        <v>0.7338427128427127</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6501308426848587</v>
+        <v>0.6960171665106598</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5539862569325563</v>
+        <v>0.6508915528915529</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7161946612261203</v>
+        <v>0.7172206378014001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.62860561740864</v>
+        <v>0.676140692562593</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5479581006241294</v>
+        <v>0.6552043650793651</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6483333333333333</v>
+        <v>0.655</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6965102209397258</v>
+        <v>0.7356772090905829</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6009055870298939</v>
+        <v>0.6872777777777778</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8638157894736842</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L4" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06179866664600882</v>
+        <v>0.08841204739992133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ElasticNet</t>
+          <t>MLPClassifier</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7227676767676766</v>
+        <v>0.7483203463203463</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7121072501854973</v>
+        <v>0.7148185192693394</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6232382779257779</v>
+        <v>0.5348139038739039</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7073684210526315</v>
+        <v>0.7031500587697532</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6875129899658009</v>
+        <v>0.7028937539963598</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6200033068783068</v>
+        <v>0.5244490476190476</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6527777777777778</v>
+        <v>0.6461210571184995</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7672024505383168</v>
+        <v>0.7750814568140404</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6756249999999999</v>
+        <v>0.59772</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8842105263157893</v>
+        <v>0.8305622009569378</v>
       </c>
       <c r="L5" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>0.10334230212914</v>
+        <v>0.1185266617924113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MLPClassifier</t>
+          <t>DecisionTreeClassifier</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7483203463203463</v>
+        <v>0.5403699633699633</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7148185192693394</v>
+        <v>0.7487901296853936</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5348139038739039</v>
+        <v>0.5403699633699633</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7031500587697532</v>
+        <v>0.6672494172494173</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7028937539963598</v>
+        <v>0.8014632010152782</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5244490476190476</v>
+        <v>0.6218412698412699</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6461210571184995</v>
+        <v>0.6829023917259212</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7750814568140404</v>
+        <v>0.7123930844569142</v>
       </c>
       <c r="J6" t="n">
-        <v>0.59772</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8305622009569378</v>
+        <v>0.6611073137388928</v>
       </c>
       <c r="L6" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1185266617924113</v>
+        <v>0.08056935143106089</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>LGBMClassifier</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6057428127428127</v>
+        <v>0.6531335331335331</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7673807417982375</v>
+        <v>0.6864080210048393</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4918399544899545</v>
+        <v>0.5694242470492471</v>
       </c>
       <c r="E7" t="n">
-        <v>0.666930448109765</v>
+        <v>0.6658811558811559</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8505783296923944</v>
+        <v>0.7440748855797554</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5994293650793651</v>
+        <v>0.6521431878306878</v>
       </c>
       <c r="H7" t="n">
-        <v>0.698510101010101</v>
+        <v>0.7084795321637427</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7128405995895358</v>
+        <v>0.6388608723540334</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4461000000000001</v>
+        <v>0.5348888888888889</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6593215994531784</v>
+        <v>0.6689507860560492</v>
       </c>
       <c r="L7" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1032590769558866</v>
+        <v>0.102355079386001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>SVC</t>
+          <t>LGBMClassifier</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7510563880563881</v>
+        <v>0.6989300699300699</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7295702328890827</v>
+        <v>0.7017592325947468</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6088543609168608</v>
+        <v>0.5171678765678765</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5926211926211926</v>
+        <v>0.6550444925444925</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6746487683020417</v>
+        <v>0.700448500765624</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5605555555555555</v>
+        <v>0.5363150793650794</v>
       </c>
       <c r="H8" t="n">
-        <v>0.521863370547581</v>
+        <v>0.6610940530058177</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8438836361635944</v>
+        <v>0.7261178238343892</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7269263888888889</v>
+        <v>0.5420999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7223684210526315</v>
+        <v>0.6667891319207109</v>
       </c>
       <c r="L8" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3379059453455379</v>
+        <v>0.05296631167169231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeClassifier</t>
+          <t>LinearBoostClassifier</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6201300921300922</v>
+        <v>0.579086247086247</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7263855559923347</v>
+        <v>0.7552109480863789</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4708828895548895</v>
+        <v>0.5634496336996337</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5479039479039478</v>
+        <v>0.6407976827094475</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8648738627172534</v>
+        <v>0.8065416973873887</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5767570158730159</v>
+        <v>0.6274603174603175</v>
       </c>
       <c r="H9" t="n">
-        <v>0.648989898989899</v>
+        <v>0.6610294117647059</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6606258201899418</v>
+        <v>0.7112130187863471</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4403946666666666</v>
+        <v>0.5351666666666667</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5046650717703349</v>
+        <v>0.6410885167464115</v>
       </c>
       <c r="L9" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03304031209179711</v>
+        <v>0.09620446062588772</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>LinearTreeClassifier</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5721497391497392</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7257389396099444</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5721497391497392</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6208333333333333</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7832046264862247</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6256190476190476</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.6438865546218487</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6771773272320385</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5506666666666666</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.6200358851674641</v>
+      </c>
+      <c r="L10" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.08944127534610173</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7510563880563881</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7295702328890827</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6088543609168608</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5926211926211926</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6746487683020417</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5605555555555555</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.521863370547581</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8438836361635944</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7269263888888889</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.7223684210526315</v>
+      </c>
+      <c r="L11" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.3379059453455379</v>
       </c>
     </row>
   </sheetData>
